--- a/Documentação+Instalação.xlsx
+++ b/Documentação+Instalação.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryoshida\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryoshida\Desktop\teste\Protheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FF294D-9667-441D-BDDE-B21DEDBF1170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436DD6E5-0C70-4A2C-AD6A-E6A36DBDE116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,13 +162,13 @@
     <t xml:space="preserve">Nome servidor </t>
   </si>
   <si>
-    <t>WIN-50H5L2LMD3T</t>
-  </si>
-  <si>
     <t>C:\Program Files\Microsoft SQL Server\</t>
   </si>
   <si>
     <t>192.168.55.104</t>
+  </si>
+  <si>
+    <t>TI-05</t>
   </si>
 </sst>
 </file>
@@ -348,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -373,11 +373,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1062,7 +1060,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1108,7 +1106,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1126,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>12</v>
@@ -1157,7 +1155,7 @@
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="8"/>
@@ -1174,7 +1172,7 @@
         <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
@@ -1460,20 +1458,17 @@
       <c r="B27" s="13"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="16" t="s">
+      <c r="B28" s="14"/>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1532,7 +1527,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="1"/>
